--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -501,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -565,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +579,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -661,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS152 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +743,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -771,22 +775,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,12 +839,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -850,12 +854,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -867,7 +871,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1 (Tutorial)</t>
+          <t>EC161 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -877,17 +881,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,7 +903,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -914,12 +918,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -931,27 +935,2819 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>MA161 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS161 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>HS152 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Introduction to quantum Physics</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Introduction to quantum physics</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>28</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>28</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>28</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>28</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>28</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>28</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>28</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>28</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>28</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>28</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>28</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>28</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>28</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,27 +475,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -505,14 +507,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC161 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Free</t>
@@ -520,12 +522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
     </row>
@@ -569,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,17 +581,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS152 [C405]</t>
         </is>
       </c>
     </row>
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HS152 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>DS161 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
+          <t>ELECTIVE_B1 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -633,27 +635,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS152 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -665,27 +667,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS161 (Tutorial)</t>
+          <t>DS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA161 (Tutorial)</t>
+          <t>MA162 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Tutorial)</t>
+          <t>EC161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HS152 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA162 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -743,27 +745,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS152 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -775,17 +777,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -795,7 +797,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -844,22 +846,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
     </row>
@@ -871,27 +873,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162 (Tutorial)</t>
+          <t>CS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Tutorial)</t>
+          <t>EC161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
+          <t>ELECTIVE_B1 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,27 +905,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS152 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
     </row>
@@ -935,27 +937,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 (Tutorial)</t>
+          <t>DS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>MA162 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HS152 (Tutorial)</t>
+          <t>HS152 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -3754,4 +3756,1334 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule all elective baskets</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No specific restrictions for this semester</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>56</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,71 +464,71 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C202]</t>
+          <t>ELECTIVE_B1 [C204]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA162 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C202]</t>
+          <t>ELECTIVE_B1 [C204]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>EC161 [C304]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MA162 [C104]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS161 [C203]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C304]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DS161 [C305]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162 [C304]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS161 [C305]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC161 [C402]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>12:00-13:00</t>
         </is>
@@ -563,115 +560,115 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA161 [C404]</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>DS161 [C203]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA162 [C104]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA161 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA161 [C404]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L408]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MA161 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L408]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EC161 [C402]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -710,258 +707,3116 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C304]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA161 [C404]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C304]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DS161 [C201]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA162 [C304]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C403]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DS161 [C201]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC161 [C403]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MA161 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA161 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA162 [C304]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA161 [C404]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C402]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C402]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC161 [C101]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA161 [C302]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161 [C302]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DS161 [C305]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC161 [C101]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162 [C104]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161 [C305]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA162 [C104]</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MA161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MA161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MA161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MA161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C204]</t>
+          <t>ELECTIVE_B1 [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,17 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C204]</t>
+          <t>ELECTIVE_B1 [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA162 [C104]</t>
+          <t>DS161 [C102]</t>
         </is>
       </c>
     </row>
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DS161 [C102]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC161 [C303]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DS161 [C203]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC161 [C304]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C303]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS161 [C203]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA162 [C104]</t>
+          <t>MA161 (Lab) [L306]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -604,22 +604,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MA161 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>MA162 [C101]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C202]</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C304]</t>
+          <t>ELECTIVE_B1 [C201]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C304]</t>
+          <t>ELECTIVE_B1 [C201]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C305]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS161 [C201]</t>
+          <t>EC161 [C303]</t>
         </is>
       </c>
     </row>
@@ -778,22 +778,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA162 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161 [C403]</t>
+          <t>EC161 [C303]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161 [C201]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS161 [C402]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS161 [C402]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -874,14 +874,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L408]</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -889,7 +889,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>MA161 [C003]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA161 [C003]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L407]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MA161 [C404]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C305]</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2356,27 +2356,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2406,22 +2406,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161 (Lab)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161 (Lab)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2911,12 +2911,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3286,32 +3286,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3401,32 +3401,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MA161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3456,32 +3456,32 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MA161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3516,27 +3516,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3561,22 +3561,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3616,22 +3616,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3671,22 +3671,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA161 (Lab)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161 (Lab)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C202]</t>
+          <t>ELECTIVE_B1 [C403]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C403]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C202]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DS161 [C102]</t>
         </is>
       </c>
     </row>
@@ -503,12 +503,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS161 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC161 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [C202]</t>
+          <t>MA162 [C404]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC161 [C405]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA161 (Lab) [L306]</t>
+          <t>DS161 [C404]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C404]</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L406]</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -614,7 +614,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>DS161 [C404]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161 [C202]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C201]</t>
+          <t>ELECTIVE_B1 [C304]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>EC161 [C302]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C304]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA162 [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C201]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MA162 [C305]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC161 [C303]</t>
         </is>
       </c>
     </row>
@@ -773,22 +773,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC161 [C302]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161 [C303]</t>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -837,17 +837,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161 [C402]</t>
+          <t>MA161 [C104]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS161 [C402]</t>
+          <t>EC161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161 (Lab) [L407]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
     </row>
@@ -874,22 +874,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA162 [C305]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2406,22 +2406,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2466,32 +2466,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MA161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2906,27 +2906,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2951,27 +2951,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3006,27 +3006,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3071,17 +3071,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3136,17 +3136,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3231,22 +3231,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3286,32 +3286,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3521,17 +3521,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3561,32 +3561,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3595,226 +3595,6 @@
         </is>
       </c>
       <c r="K25" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>MA161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MA161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -474,27 +474,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C202]</t>
+          <t>ELECTIVE_B1 [C305]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161 [C101]</t>
+          <t>MA162 [C302]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C202]</t>
+          <t>ELECTIVE_B1 [C305]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA161 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS161 [C304]</t>
+          <t>EC161 [C204]</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C305]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C205]</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C205]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,17 +580,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA162 [C303]</t>
+          <t>MA162 [C302]</t>
         </is>
       </c>
     </row>
@@ -612,12 +612,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>EC161 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C305]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C204]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS161 [C403]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA162 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C304]</t>
         </is>
       </c>
     </row>
@@ -845,22 +845,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C304]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS161 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161 [C302]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -909,22 +909,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA161 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -1069,24 +1069,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1116,29 +1116,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C304, L408</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -1210,29 +1210,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1252,12 +1252,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408, C204</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 3 issues</t>
+          <t>[WARN] 3 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1506,34 +1506,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1553,29 +1553,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C302, L407</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L306, C003</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 3 issues</t>
+          <t>[WARN] 3 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,17 +1725,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1787,31 +1787,31 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA161, EC161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162, EC161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>DS161, EC161</t>
+          <t>DS161, ELECTIVE_B1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1983,7 +1983,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2041,11 +2041,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2053,33 +2053,33 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MA162, ELECTIVE_B1</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2104,49 +2104,6 @@
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom without projector</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -2261,22 +2218,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2318,22 +2275,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2375,22 +2332,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2432,22 +2389,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2489,22 +2446,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2587,7 +2544,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2671,12 +2628,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/35</t>
+          <t>9/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 28.6%</t>
+          <t>Utilization: 25.7%</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2672,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -464,9 +472,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +484,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,105 +504,105 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS161 [C003]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162 [C003]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -609,56 +617,56 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [C003]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -707,6 +715,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -734,9 +747,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -746,125 +759,125 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA161 [C003]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS161 [C003]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162 [C003]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -879,61 +892,61 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [C003]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1039,7 +1052,6 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
@@ -2527,4 +2539,5815 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -7,13 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,22 +479,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,22 +511,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,86 +543,86 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C003]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -634,22 +639,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,32 +671,1919 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -706,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,256 +2609,329 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Lect/Tuts/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>**ELECTIVE_B1**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C003]</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>L105, C001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Rate: 40.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 3 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>
@@ -981,7 +2946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,87 +2957,128 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tutorial Day</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Courses in Basket</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Number of Courses</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sections</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Branches</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>MA161, EC161, MA162...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Semester 1</t>
+          <t>1.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -1082,6 +3088,711 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-18 19:02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 4, Elective: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/5 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Elective Baskets</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baskets Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28 courses in baskets</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2/36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Utilization: 5.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13.3%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A: 26.7%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Score: 34.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2541,13 +5252,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2558,1242 +5269,1017 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Room Number</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Lecture Slots</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Weekly Hours (Timetable)</t>
+          <t>Tutorial Slot</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily Avg Hours (Timetable)</t>
+          <t>Total Courses in Basket</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Exam Sessions</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Utilization Rate (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
+          <t>Common for Both Sections</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>15</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+        <v>28</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Computers, Books</t>
+        <v>28</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>28</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Examination room</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Tables, Chairs</t>
+        <v>28</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>28</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C301</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Physics Lab</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Physics Equipment</t>
+        <v>28</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C306</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>0</v>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C307</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C308</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>L401</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3802,13 +6288,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3904,24 +6390,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="b">
         <v>0</v>
       </c>
@@ -3933,7 +6415,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -3963,24 +6445,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -3992,7 +6470,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -4022,24 +6500,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -4051,7 +6525,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -4081,7 +6555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4091,14 +6565,10 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="b">
         <v>0</v>
       </c>
@@ -4110,7 +6580,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -4140,7 +6610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4150,14 +6620,10 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="b">
         <v>0</v>
       </c>
@@ -4169,7 +6635,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -4199,7 +6665,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4209,14 +6675,10 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="b">
         <v>0</v>
       </c>
@@ -4228,7 +6690,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -4258,24 +6720,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -4287,7 +6745,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -4317,7 +6775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4327,14 +6785,10 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -4346,7 +6800,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4376,22 +6830,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4405,7 +6859,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4435,22 +6889,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4464,7 +6918,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -4494,7 +6948,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4557,7 +7011,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4620,7 +7074,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4683,7 +7137,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4746,7 +7200,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4809,7 +7263,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4872,7 +7326,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4935,7 +7389,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4998,7 +7452,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5061,7 +7515,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5124,7 +7578,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5187,7 +7641,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5250,7 +7704,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5313,7 +7767,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5376,7 +7830,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5439,7 +7893,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5502,7 +7956,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5565,7 +8019,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5628,7 +8082,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5691,7 +8145,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5754,7 +8208,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5817,7 +8271,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5870,7 +8324,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5880,7 +8334,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5903,7 +8357,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -5914,7 +8368,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5929,17 +8383,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5962,7 +8416,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -5973,7 +8427,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -5988,17 +8442,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6017,11 +8471,11 @@
         </is>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -6032,7 +8486,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6047,32 +8501,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6080,13 +8534,13 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6106,32 +8560,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6139,13 +8593,13 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6165,51 +8619,51 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6224,32 +8678,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6257,18 +8711,18 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6283,32 +8737,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6316,18 +8770,18 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -6342,17 +8796,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6375,10 +8829,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6386,7 +8844,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -6401,32 +8859,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6434,18 +8892,22 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -6460,17 +8922,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6508,7 +8970,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -6523,17 +8985,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6571,7 +9033,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -6586,17 +9048,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6634,7 +9096,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -6649,17 +9111,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6697,7 +9159,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -6712,17 +9174,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6760,7 +9222,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -6775,17 +9237,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6823,7 +9285,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -6838,17 +9300,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6886,7 +9348,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -6901,17 +9363,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6949,7 +9411,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -6964,17 +9426,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7012,7 +9474,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -7027,32 +9489,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7063,19 +9525,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7090,32 +9548,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7126,1224 +9584,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>C004</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Basket_Course_Allocations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,17 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [C001]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -770,6 +770,3325 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -860,7 +4179,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -887,17 +4206,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -951,17 +4270,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -993,7 +4312,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [C001]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1003,7 +4322,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -1015,12 +4334,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1108,7 +4427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1181,16 +4500,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1211,16 +4530,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1279,16 +4598,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1449,16 +4768,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2361,229 +5680,6 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>TV</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2743,7 +5839,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2790,7 +5886,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2837,7 +5933,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2884,7 +5980,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L105, C001</t>
+          <t>C002, C001, C004</t>
         </is>
       </c>
     </row>
@@ -2946,7 +6042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3018,7 +6114,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3026,42 +6122,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA161, EC161, MA162...</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3073,12 +6169,55 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>MA161, DS161, EC161...</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -3295,7 +6434,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3517,7 +6656,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 19:02</t>
+          <t>2026-01-20 00:14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3584,7 +6723,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28 courses in baskets</t>
+          <t>11 courses in baskets</t>
         </is>
       </c>
     </row>
@@ -3601,12 +6740,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2/36</t>
+          <t>3/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 5.6%</t>
+          <t>Utilization: 8.3%</t>
         </is>
       </c>
     </row>
@@ -3623,12 +6762,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A: 26.7%, B: 0.0%</t>
+          <t>A: 28.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -3650,7 +6789,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Score: 34.0/100</t>
+          <t>Score: 34.3/100</t>
         </is>
       </c>
     </row>
@@ -3748,12 +6887,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, CS161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5258,7 +8397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5321,11 +8460,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5356,11 +8495,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5391,11 +8530,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5426,11 +8565,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5461,11 +8600,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5496,11 +8635,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5531,11 +8670,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5566,11 +8705,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5601,11 +8740,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5636,11 +8775,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5661,7 +8800,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5671,11 +8810,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -5683,601 +8822,6 @@
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>28</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>28</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>28</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>28</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>28</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>28</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>28</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>28</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>28</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>28</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>28</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>28</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>28</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>28</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>28</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>28</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>28</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6294,7 +8838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6305,3294 +8849,204 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
+          <t>Allocated Rooms</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MA161</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>DS161</t>
+          <t>C003, C104</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>MA162</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>MA161</t>
+          <t>C001, C204</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DS161</t>
+          <t>C003, C101</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>MA162</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>EC161</t>
+          <t>C104, C205</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>EC161</t>
+          <t>C202, C302</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
+          <t>C001, C203</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DS161</t>
+          <t>C002, C205</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,17 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C001]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -775,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,19 +881,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="b">
         <v>0</v>
       </c>
@@ -905,7 +901,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -945,19 +941,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -969,7 +961,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1009,19 +1001,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -1033,7 +1021,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1073,19 +1061,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="b">
         <v>0</v>
       </c>
@@ -1097,7 +1081,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1137,19 +1121,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="b">
         <v>0</v>
       </c>
@@ -1161,7 +1141,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1201,19 +1181,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="b">
         <v>0</v>
       </c>
@@ -1225,7 +1201,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1273,11 +1249,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -1289,7 +1261,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1329,19 +1301,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -1353,7 +1321,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1393,21 +1361,21 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1417,7 +1385,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1457,15 +1425,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
@@ -1477,7 +1449,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1517,17 +1489,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -1545,12 +1517,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1590,10 +1562,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -1609,12 +1585,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1649,12 +1625,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1677,12 +1653,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1717,19 +1693,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -1745,12 +1717,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1813,12 +1785,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1863,7 +1835,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -1881,12 +1853,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1949,12 +1921,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1999,7 +1971,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -2017,12 +1989,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2067,7 +2039,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -2085,12 +2057,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2153,7 +2125,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2193,17 +2165,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -2221,7 +2193,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2251,27 +2223,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -2282,18 +2254,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2321,17 +2301,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -2342,18 +2322,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2376,7 +2364,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2402,7 +2390,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>C002</t>
@@ -2410,10 +2402,14 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2431,7 +2427,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2449,11 +2445,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="b">
         <v>0</v>
       </c>
@@ -2462,18 +2454,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2491,22 +2491,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2522,18 +2522,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2551,7 +2559,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2561,12 +2569,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2582,18 +2590,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2611,12 +2627,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2649,17 +2665,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2695,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2699,7 +2715,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -2717,17 +2733,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2747,27 +2763,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -2785,17 +2801,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2815,27 +2831,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -2853,17 +2869,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2883,27 +2899,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -2921,17 +2937,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2961,15 +2977,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -2985,12 +3005,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3025,12 +3045,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3053,12 +3073,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3093,12 +3113,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3121,12 +3141,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3161,19 +3181,15 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -3189,12 +3205,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3239,7 +3255,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -3257,12 +3273,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3307,7 +3323,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -3325,12 +3341,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3355,27 +3371,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -3393,17 +3409,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3423,22 +3439,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3461,17 +3477,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3491,27 +3507,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -3529,17 +3545,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3559,25 +3575,29 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -3593,17 +3613,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3623,12 +3643,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3643,7 +3663,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -3661,425 +3681,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4179,7 +3791,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4206,17 +3818,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4270,17 +3882,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4312,7 +3924,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C001]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4334,12 +3946,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4500,16 +4112,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -4530,16 +4142,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -4598,16 +4210,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -5040,16 +4652,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5839,7 +5451,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5498,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5545,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5592,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002, C001, C004</t>
+          <t>L206, C001</t>
         </is>
       </c>
     </row>
@@ -6042,7 +5654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6114,7 +5726,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6122,42 +5734,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161, MA161, EC161...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6169,55 +5781,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>MA161, DS161, EC161...</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.4</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6225,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:14</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6740,12 +6309,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>2/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 5.6%</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8445,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -8893,7 +8462,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C104</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8479,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8496,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C204</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -8944,7 +8513,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -8978,7 +8547,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, C205</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -8995,7 +8564,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -9012,7 +8581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -9029,7 +8598,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -9046,7 +8615,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C205</t>
+          <t>C205</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2845,16 +2845,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3049,16 +3049,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3185,16 +3185,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3389,16 +3389,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4230,7 +4230,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4422,17 +4422,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4446,7 +4446,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4494,17 +4494,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4518,7 +4518,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4590,7 +4590,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4782,17 +4782,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4806,7 +4806,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4878,7 +4878,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4950,7 +4950,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5022,7 +5022,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5070,17 +5070,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5450,17 +5450,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5830,17 +5830,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6134,17 +6134,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6210,17 +6210,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6590,17 +6590,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6894,17 +6894,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6970,17 +6970,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7355,10 +7355,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -7370,7 +7374,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7423,10 +7427,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7438,7 +7446,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7486,15 +7494,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7506,7 +7518,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7559,10 +7571,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -7574,7 +7590,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7627,10 +7643,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7642,7 +7662,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7690,15 +7710,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7710,7 +7734,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7758,15 +7782,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7778,7 +7806,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7826,15 +7854,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7846,7 +7878,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8038,15 +8070,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -8058,7 +8094,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8106,15 +8142,19 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -8126,7 +8166,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8198,7 +8238,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8270,7 +8310,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8318,15 +8358,19 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
@@ -8342,7 +8386,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8398,11 +8442,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -8418,7 +8458,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8466,12 +8506,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -8494,7 +8534,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8570,7 +8610,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8646,7 +8686,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8722,7 +8762,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8780,7 +8820,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8798,7 +8838,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8874,7 +8914,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8950,7 +8990,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9003,7 +9043,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -9026,7 +9066,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9074,15 +9114,19 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
@@ -9098,7 +9142,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9154,11 +9198,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="b">
         <v>0</v>
       </c>
@@ -9174,7 +9214,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9222,12 +9262,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -9250,7 +9290,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9326,7 +9366,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9402,7 +9442,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9478,7 +9518,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9536,7 +9576,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -9554,7 +9594,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9630,7 +9670,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9706,7 +9746,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9759,7 +9799,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -9782,7 +9822,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9830,15 +9870,19 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
@@ -9854,7 +9898,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9910,11 +9954,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -9930,7 +9970,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9978,12 +10018,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -10006,7 +10046,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10082,7 +10122,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10158,7 +10198,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10234,7 +10274,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10292,7 +10332,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -10310,7 +10350,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10386,7 +10426,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10462,7 +10502,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -10515,7 +10555,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -10538,7 +10578,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10604,7 +10644,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10661,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C302</t>
+          <t>C001, C303</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10678,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101, C303</t>
+          <t>C002, C304</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10695,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, C304</t>
+          <t>C101, C305</t>
         </is>
       </c>
     </row>
@@ -10672,7 +10712,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C305</t>
+          <t>C003, C102</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10729,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C202</t>
+          <t>C104, L402</t>
         </is>
       </c>
     </row>
@@ -10706,7 +10746,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203, L402</t>
+          <t>C202, L403</t>
         </is>
       </c>
     </row>
@@ -10723,7 +10763,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C204, L404</t>
+          <t>C203, L404</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10780,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C205, L405</t>
+          <t>C204, L405</t>
         </is>
       </c>
     </row>
@@ -10757,7 +10797,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L403, L406</t>
+          <t>C205, L406</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable_baskets.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3049,16 +3049,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4086,7 +4086,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4158,7 +4158,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4278,17 +4278,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4302,7 +4302,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4350,17 +4350,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4374,7 +4374,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4950,7 +4950,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5022,7 +5022,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6134,17 +6134,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6367,12 +6367,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6894,17 +6894,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7127,12 +7127,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7350,17 +7350,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7374,7 +7374,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7422,17 +7422,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7446,7 +7446,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7566,17 +7566,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7590,7 +7590,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7638,17 +7638,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7662,7 +7662,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8358,17 +8358,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8434,15 +8434,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -8458,7 +8462,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8506,12 +8510,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -8534,7 +8538,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8610,7 +8614,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8668,7 +8672,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -8686,7 +8690,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8744,7 +8748,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -8762,7 +8766,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8820,7 +8824,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8838,7 +8842,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8896,7 +8900,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8914,7 +8918,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8990,7 +8994,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9066,7 +9070,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9114,17 +9118,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9142,7 +9146,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9190,15 +9194,19 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
@@ -9214,7 +9222,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9262,12 +9270,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -9290,7 +9298,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9366,7 +9374,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9424,7 +9432,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9442,7 +9450,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9500,7 +9508,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -9518,7 +9526,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9576,7 +9584,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -9594,7 +9602,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9652,7 +9660,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -9670,7 +9678,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9746,7 +9754,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9822,7 +9830,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9870,17 +9878,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -9898,7 +9906,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9946,15 +9954,19 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -9970,7 +9982,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10018,12 +10030,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -10046,7 +10058,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10122,7 +10134,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10180,7 +10192,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -10198,7 +10210,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10256,7 +10268,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -10274,7 +10286,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10332,7 +10344,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -10350,7 +10362,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10408,7 +10420,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -10426,7 +10438,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10502,7 +10514,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -10578,7 +10590,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10644,7 +10656,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C302</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10673,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C303</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10690,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C304</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -10695,7 +10707,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C305</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10712,7 +10724,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C102</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10729,7 +10741,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, L402</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10758,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, L403</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -10763,7 +10775,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203, L404</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -10780,7 +10792,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C204, L405</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10809,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205, L406</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
